--- a/cypress/fixtures/expectedResults/Personal lines/OR PIM 10 09 22.xlsx
+++ b/cypress/fixtures/expectedResults/Personal lines/OR PIM 10 09 22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaacr\Box\AAISdirect Test Cases - Personal Lines\PIM - In Progress\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andreis/MyOwnProject/api-test-cypress/cypress/fixtures/expectedResults/Personal lines/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6195F694-D83C-4729-930E-0FA944FF68BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03355BB1-9F2D-EF45-A167-EE5584A41B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
+    <workbookView xWindow="700" yWindow="-27940" windowWidth="39300" windowHeight="23080" xr2:uid="{992EAC74-168D-4556-9021-6B1FC9608133}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms and Bulletins" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1108" uniqueCount="328">
   <si>
     <t>CRITERIA</t>
   </si>
@@ -1139,6 +1139,12 @@
 Statistical: Oregon
 Pub Type: ~Statistical Plan</t>
   </si>
+  <si>
+    <t>PFM</t>
+  </si>
+  <si>
+    <t>FEL</t>
+  </si>
 </sst>
 </file>
 
@@ -1147,7 +1153,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,6 +1211,39 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1313,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1328,17 +1367,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1347,12 +1387,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1372,6 +1406,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1381,10 +1437,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1406,8 +1462,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B1607240-9311-4559-9A66-D7C7F4C981F3}" name="Table1" displayName="Table1" ref="B2:C17" totalsRowShown="0">
   <autoFilter ref="B2:C17" xr:uid="{2672764D-20A9-4DC1-B564-532DF49C9E9D}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{394DAC57-BF33-458B-A4F2-C84D2CD45A43}" name="Publication Type" dataDxfId="3" totalsRowDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{43101873-A8B0-4F64-A5E1-A8D452E85684}" name="Source" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{394DAC57-BF33-458B-A4F2-C84D2CD45A43}" name="Publication Type" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{43101873-A8B0-4F64-A5E1-A8D452E85684}" name="Source" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1710,1056 +1766,3060 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6089C9B-6C1F-41AA-9E90-19600F8F153D}">
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" customWidth="1"/>
-    <col min="2" max="2" width="55.26953125" customWidth="1"/>
-    <col min="3" max="3" width="23.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22" customWidth="1"/>
-    <col min="5" max="5" width="24.453125" customWidth="1"/>
-    <col min="6" max="6" width="26.6328125" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="55.33203125" style="25" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="25" customWidth="1"/>
+    <col min="4" max="4" width="22" style="25" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="25" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" style="25" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="25"/>
+    <col min="8" max="8" width="27.83203125" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="24"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="26">
         <v>44843</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="81.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="61" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="H9" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="H10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H15" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H19" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F21" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="H21" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H22" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B24" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H24" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H26" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E27" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F27" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="H27" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E28" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F28" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="H28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E29" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F29" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="H29" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E30" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F30" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="H30" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E31" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F31" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="H31" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="H32" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="H33" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E18" t="s">
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H35" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B36" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E36" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F36" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="H36" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>70</v>
-      </c>
-      <c r="E19" t="s">
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H37" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H40" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D47" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F47" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E48" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B49" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F49" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E50" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F50" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="H50" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B51" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="H51" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H52" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A53" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B53" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C53" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D53" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="E53" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A54" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A55" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="B55" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D55" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E55" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F55" s="25" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="H55" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B22" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>93</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" t="s">
-        <v>94</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>73</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" t="s">
-        <v>95</v>
-      </c>
-      <c r="C25" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>73</v>
-      </c>
-      <c r="F25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" t="s">
-        <v>97</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>66</v>
-      </c>
-      <c r="E29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C31" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>107</v>
-      </c>
-      <c r="C37" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" t="s">
-        <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>108</v>
-      </c>
-      <c r="C38" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" t="s">
-        <v>48</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" t="s">
-        <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" t="s">
-        <v>73</v>
-      </c>
-      <c r="F41" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" t="s">
-        <v>65</v>
-      </c>
-      <c r="E42" t="s">
-        <v>73</v>
-      </c>
-      <c r="F42" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>113</v>
-      </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>114</v>
-      </c>
-      <c r="C44" t="s">
-        <v>53</v>
-      </c>
-      <c r="D44" t="s">
-        <v>65</v>
-      </c>
-      <c r="E44" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="s">
-        <v>73</v>
-      </c>
-      <c r="F45" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" t="s">
-        <v>65</v>
-      </c>
-      <c r="E46" t="s">
-        <v>73</v>
-      </c>
-      <c r="F46" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>117</v>
-      </c>
-      <c r="C47" t="s">
-        <v>56</v>
-      </c>
-      <c r="D47" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" t="s">
-        <v>73</v>
-      </c>
-      <c r="F47" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B48" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" t="s">
-        <v>65</v>
-      </c>
-      <c r="E48" t="s">
-        <v>73</v>
-      </c>
-      <c r="F48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C49" t="s">
-        <v>58</v>
-      </c>
-      <c r="D49" t="s">
-        <v>65</v>
-      </c>
-      <c r="E49" t="s">
-        <v>73</v>
-      </c>
-      <c r="F49" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B50" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D50" t="s">
-        <v>72</v>
-      </c>
-      <c r="E50" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" t="s">
-        <v>72</v>
-      </c>
-      <c r="E51" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" t="s">
-        <v>122</v>
-      </c>
-      <c r="C52" t="s">
-        <v>61</v>
-      </c>
-      <c r="D52" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" t="s">
-        <v>74</v>
-      </c>
-      <c r="F52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B53" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" t="s">
-        <v>72</v>
-      </c>
-      <c r="E53" t="s">
-        <v>74</v>
-      </c>
-      <c r="F53" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C54" t="s">
-        <v>63</v>
-      </c>
-      <c r="D54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>74</v>
-      </c>
-      <c r="F54" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A56" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B56" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="31" t="s">
         <v>130</v>
+      </c>
+      <c r="H56" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="21"/>
+      <c r="J56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="21"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G57" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H57" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I57" s="21"/>
+      <c r="J57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="21"/>
+      <c r="M57" s="21"/>
+      <c r="N57" s="21"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H58" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H59" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I59" s="21"/>
+      <c r="J59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="21"/>
+      <c r="M59" s="21"/>
+      <c r="N59" s="21"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H60" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I60" s="21"/>
+      <c r="J60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="21"/>
+      <c r="M60" s="21"/>
+      <c r="N60" s="21"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B61" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H61" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="21"/>
+      <c r="M61" s="21"/>
+      <c r="N61" s="21"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="G62" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H62" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I62" s="21"/>
+      <c r="J62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="21"/>
+      <c r="M62" s="21"/>
+      <c r="N62" s="21"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B63" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D63" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H63" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I63" s="21"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="21"/>
+      <c r="M63" s="21"/>
+      <c r="N63" s="21"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B64" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="G64" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H64" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I64" s="21"/>
+      <c r="J64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A65" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G65" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H65" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I65" s="21"/>
+      <c r="J65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="21"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H66" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="I66" s="21"/>
+      <c r="J66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="21"/>
+      <c r="M66" s="21"/>
+      <c r="N66" s="21"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C67" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="G67" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H67" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="I67" s="21"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
+      <c r="N67" s="21"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" s="23"/>
+      <c r="B68" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D68" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H68" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="I68" s="21"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="21"/>
+      <c r="M68" s="21"/>
+      <c r="N68" s="21"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A69" s="23"/>
+      <c r="B69" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H69" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="I69" s="21"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
+      <c r="N69" s="21"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A70" s="23"/>
+      <c r="B70" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="G70" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H70" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="I70" s="21"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="21"/>
+      <c r="M70" s="21"/>
+      <c r="N70" s="21"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A71" s="23"/>
+      <c r="B71" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>237</v>
+      </c>
+      <c r="E71" s="25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H71" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="I71" s="21"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="21"/>
+      <c r="M71" s="21"/>
+      <c r="N71" s="21"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A72" s="23"/>
+      <c r="B72" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H72" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I72" s="21"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="21"/>
+      <c r="M72" s="21"/>
+      <c r="N72" s="21"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A73" s="23"/>
+      <c r="B73" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H73" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I73" s="21"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="21"/>
+      <c r="M73" s="21"/>
+      <c r="N73" s="21"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A74" s="23"/>
+      <c r="B74" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H74" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I74" s="21"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="21"/>
+      <c r="M74" s="21"/>
+      <c r="N74" s="21"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A75" s="23"/>
+      <c r="B75" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H75" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A76" s="23"/>
+      <c r="B76" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H76" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I76" s="21"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="21"/>
+      <c r="M76" s="21"/>
+      <c r="N76" s="21"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A77" s="23"/>
+      <c r="B77" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H77" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A78" s="23"/>
+      <c r="B78" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>245</v>
+      </c>
+      <c r="G78" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H78" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I78" s="21"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="21"/>
+      <c r="M78" s="21"/>
+      <c r="N78" s="21"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A79" s="23"/>
+      <c r="B79" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>246</v>
+      </c>
+      <c r="G79" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H79" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" s="23"/>
+      <c r="B80" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C80" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="G80" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H80" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I80" s="21"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="21"/>
+      <c r="M80" s="21"/>
+      <c r="N80" s="21"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="23"/>
+      <c r="B81" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="25" t="s">
+        <v>248</v>
+      </c>
+      <c r="G81" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H81" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="23"/>
+      <c r="B82" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>249</v>
+      </c>
+      <c r="G82" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H82" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="21"/>
+      <c r="M82" s="21"/>
+      <c r="N82" s="21"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="23"/>
+      <c r="B83" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="G83" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H83" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A84" s="23"/>
+      <c r="B84" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>251</v>
+      </c>
+      <c r="G84" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H84" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I84" s="21"/>
+      <c r="J84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="21"/>
+      <c r="M84" s="21"/>
+      <c r="N84" s="21"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A85" s="23"/>
+      <c r="B85" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="G85" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H85" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A86" s="23"/>
+      <c r="B86" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G86" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H86" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I86" s="21"/>
+      <c r="J86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="21"/>
+      <c r="M86" s="21"/>
+      <c r="N86" s="21"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A87" s="23"/>
+      <c r="B87" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>254</v>
+      </c>
+      <c r="G87" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H87" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I87" s="21"/>
+      <c r="J87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="21"/>
+      <c r="M87" s="21"/>
+      <c r="N87" s="21"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="23"/>
+      <c r="B88" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>255</v>
+      </c>
+      <c r="G88" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H88" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I88" s="21"/>
+      <c r="J88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="21"/>
+      <c r="M88" s="21"/>
+      <c r="N88" s="21"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="23"/>
+      <c r="B89" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>256</v>
+      </c>
+      <c r="G89" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H89" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I89" s="21"/>
+      <c r="J89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="21"/>
+      <c r="M89" s="21"/>
+      <c r="N89" s="21"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A90" s="23"/>
+      <c r="B90" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="G90" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H90" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I90" s="21"/>
+      <c r="J90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="21"/>
+      <c r="M90" s="21"/>
+      <c r="N90" s="21"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A91" s="23"/>
+      <c r="B91" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="G91" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H91" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I91" s="21"/>
+      <c r="J91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="21"/>
+      <c r="M91" s="21"/>
+      <c r="N91" s="21"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="23"/>
+      <c r="B92" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="C92" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H92" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I92" s="21"/>
+      <c r="J92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="21"/>
+      <c r="M92" s="21"/>
+      <c r="N92" s="21"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="23"/>
+      <c r="B93" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G93" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H93" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I93" s="21"/>
+      <c r="J93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="21"/>
+      <c r="M93" s="21"/>
+      <c r="N93" s="21"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A94" s="23"/>
+      <c r="B94" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="C94" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G94" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I94" s="21"/>
+      <c r="J94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="21"/>
+      <c r="M94" s="21"/>
+      <c r="N94" s="21"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A95" s="23"/>
+      <c r="B95" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C95" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="G95" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I95" s="21"/>
+      <c r="J95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="21"/>
+      <c r="M95" s="21"/>
+      <c r="N95" s="21"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A96" s="23"/>
+      <c r="B96" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C96" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="G96" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I96" s="21"/>
+      <c r="J96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="21"/>
+      <c r="M96" s="21"/>
+      <c r="N96" s="21"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A97" s="23"/>
+      <c r="B97" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="G97" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H97" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I97" s="21"/>
+      <c r="J97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="21"/>
+      <c r="M97" s="21"/>
+      <c r="N97" s="21"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A98" s="23"/>
+      <c r="B98" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C98" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="G98" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H98" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I98" s="21"/>
+      <c r="J98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="21"/>
+      <c r="M98" s="21"/>
+      <c r="N98" s="21"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="23"/>
+      <c r="B99" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C99" s="25" t="s">
+        <v>266</v>
+      </c>
+      <c r="G99" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H99" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I99" s="21"/>
+      <c r="J99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="21"/>
+      <c r="M99" s="21"/>
+      <c r="N99" s="21"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="23"/>
+      <c r="B100" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C100" s="25" t="s">
+        <v>267</v>
+      </c>
+      <c r="G100" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I100" s="21"/>
+      <c r="J100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="21"/>
+      <c r="M100" s="21"/>
+      <c r="N100" s="21"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A101" s="23"/>
+      <c r="B101" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C101" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="G101" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I101" s="21"/>
+      <c r="J101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="21"/>
+      <c r="M101" s="21"/>
+      <c r="N101" s="21"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A102" s="23"/>
+      <c r="B102" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="C102" s="25" t="s">
+        <v>269</v>
+      </c>
+      <c r="G102" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H102" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21"/>
+      <c r="N102" s="21"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="23"/>
+      <c r="B103" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="C103" s="25" t="s">
+        <v>270</v>
+      </c>
+      <c r="G103" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H103" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I103" s="21"/>
+      <c r="J103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="21"/>
+      <c r="M103" s="21"/>
+      <c r="N103" s="21"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A104" s="23"/>
+      <c r="B104" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C104" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="G104" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I104" s="21"/>
+      <c r="J104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="21"/>
+      <c r="M104" s="21"/>
+      <c r="N104" s="21"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A105" s="23"/>
+      <c r="B105" s="25" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="G105" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I105" s="21"/>
+      <c r="J105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="21"/>
+      <c r="M105" s="21"/>
+      <c r="N105" s="21"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A106" s="23"/>
+      <c r="B106" s="25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>273</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H106" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="I106" s="21"/>
+      <c r="J106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="21"/>
+      <c r="M106" s="21"/>
+      <c r="N106" s="21"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A107" s="23"/>
+      <c r="B107" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H107" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="I107" s="21"/>
+      <c r="J107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="21"/>
+      <c r="M107" s="21"/>
+      <c r="N107" s="21"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A108" s="23"/>
+      <c r="B108" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>274</v>
+      </c>
+      <c r="G108" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H108" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I108" s="21"/>
+      <c r="J108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="21"/>
+      <c r="M108" s="21"/>
+      <c r="N108" s="21"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="23"/>
+      <c r="B109" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C109" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="G109" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H109" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="21"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A110" s="23"/>
+      <c r="B110" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>275</v>
+      </c>
+      <c r="G110" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I110" s="21"/>
+      <c r="J110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="21"/>
+      <c r="M110" s="21"/>
+      <c r="N110" s="21"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A111" s="23"/>
+      <c r="B111" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="G111" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H111" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I111" s="21"/>
+      <c r="J111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="21"/>
+      <c r="M111" s="21"/>
+      <c r="N111" s="21"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A112" s="23"/>
+      <c r="B112" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="C112" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="G112" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="I112" s="21"/>
+      <c r="J112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="21"/>
+      <c r="M112" s="21"/>
+      <c r="N112" s="21"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A113" s="23"/>
+      <c r="B113" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="C113" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="G113" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I113" s="21"/>
+      <c r="J113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="21"/>
+      <c r="M113" s="21"/>
+      <c r="N113" s="21"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A114" s="23"/>
+      <c r="B114" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="G114" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H114" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I114" s="21"/>
+      <c r="J114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="21"/>
+      <c r="M114" s="21"/>
+      <c r="N114" s="21"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A115" s="23"/>
+      <c r="B115" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="C115" s="25" t="s">
+        <v>280</v>
+      </c>
+      <c r="G115" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H115" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I115" s="21"/>
+      <c r="J115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="21"/>
+      <c r="M115" s="21"/>
+      <c r="N115" s="21"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A116" s="23"/>
+      <c r="B116" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="C116" s="25" t="s">
+        <v>281</v>
+      </c>
+      <c r="G116" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H116" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A117" s="23"/>
+      <c r="B117" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="C117" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="G117" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H117" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I117" s="21"/>
+      <c r="J117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="21"/>
+      <c r="M117" s="21"/>
+      <c r="N117" s="21"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A118" s="23"/>
+      <c r="B118" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="25" t="s">
+        <v>283</v>
+      </c>
+      <c r="G118" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H118" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I118" s="21"/>
+      <c r="J118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="21"/>
+      <c r="M118" s="21"/>
+      <c r="N118" s="21"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A119" s="23"/>
+      <c r="B119" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C119" s="25" t="s">
+        <v>284</v>
+      </c>
+      <c r="G119" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H119" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I119" s="21"/>
+      <c r="J119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="21"/>
+      <c r="M119" s="21"/>
+      <c r="N119" s="21"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A120" s="23"/>
+      <c r="B120" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="C120" s="25" t="s">
+        <v>285</v>
+      </c>
+      <c r="G120" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H120" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I120" s="21"/>
+      <c r="J120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="21"/>
+      <c r="M120" s="21"/>
+      <c r="N120" s="21"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A121" s="23"/>
+      <c r="B121" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="C121" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="G121" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H121" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I121" s="21"/>
+      <c r="J121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="21"/>
+      <c r="M121" s="21"/>
+      <c r="N121" s="21"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A122" s="23"/>
+      <c r="B122" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C122" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="G122" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H122" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I122" s="21"/>
+      <c r="J122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="21"/>
+      <c r="M122" s="21"/>
+      <c r="N122" s="21"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A123" s="23"/>
+      <c r="B123" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="G123" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H123" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I123" s="21"/>
+      <c r="J123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="21"/>
+      <c r="M123" s="21"/>
+      <c r="N123" s="21"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A124" s="23"/>
+      <c r="B124" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" s="25" t="s">
+        <v>289</v>
+      </c>
+      <c r="G124" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H124" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I124" s="21"/>
+      <c r="J124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="21"/>
+      <c r="M124" s="21"/>
+      <c r="N124" s="21"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A125" s="23"/>
+      <c r="B125" s="25" t="s">
+        <v>200</v>
+      </c>
+      <c r="C125" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="G125" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I125" s="21"/>
+      <c r="J125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="21"/>
+      <c r="M125" s="21"/>
+      <c r="N125" s="21"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A126" s="23"/>
+      <c r="B126" s="25" t="s">
+        <v>201</v>
+      </c>
+      <c r="C126" s="25" t="s">
+        <v>291</v>
+      </c>
+      <c r="G126" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H126" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I126" s="21"/>
+      <c r="J126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="21"/>
+      <c r="M126" s="21"/>
+      <c r="N126" s="21"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A127" s="23"/>
+      <c r="B127" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="25" t="s">
+        <v>292</v>
+      </c>
+      <c r="G127" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H127" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I127" s="21"/>
+      <c r="J127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="21"/>
+      <c r="M127" s="21"/>
+      <c r="N127" s="21"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A128" s="23"/>
+      <c r="B128" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="C128" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="G128" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H128" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I128" s="21"/>
+      <c r="J128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="21"/>
+      <c r="M128" s="21"/>
+      <c r="N128" s="21"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A129" s="23"/>
+      <c r="B129" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C129" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="G129" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H129" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="I129" s="21"/>
+      <c r="J129" s="21"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="21"/>
+      <c r="M129" s="21"/>
+      <c r="N129" s="21"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A130" s="23"/>
+      <c r="B130" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="C130" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="G130" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H130" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I130" s="21"/>
+      <c r="J130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="21"/>
+      <c r="M130" s="21"/>
+      <c r="N130" s="21"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A131" s="23"/>
+      <c r="B131" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="C131" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="G131" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H131" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I131" s="21"/>
+      <c r="J131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="21"/>
+      <c r="M131" s="21"/>
+      <c r="N131" s="21"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A132" s="23"/>
+      <c r="B132" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="C132" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="G132" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H132" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I132" s="21"/>
+      <c r="J132" s="21"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="21"/>
+      <c r="M132" s="21"/>
+      <c r="N132" s="21"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A133" s="23"/>
+      <c r="B133" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="C133" s="25" t="s">
+        <v>298</v>
+      </c>
+      <c r="G133" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H133" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I133" s="21"/>
+      <c r="J133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="21"/>
+      <c r="M133" s="21"/>
+      <c r="N133" s="21"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A134" s="23"/>
+      <c r="B134" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>299</v>
+      </c>
+      <c r="G134" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H134" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I134" s="21"/>
+      <c r="J134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="21"/>
+      <c r="M134" s="21"/>
+      <c r="N134" s="21"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A135" s="23"/>
+      <c r="B135" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C135" s="25" t="s">
+        <v>300</v>
+      </c>
+      <c r="G135" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H135" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I135" s="21"/>
+      <c r="J135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="21"/>
+      <c r="M135" s="21"/>
+      <c r="N135" s="21"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A136" s="23"/>
+      <c r="B136" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C136" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="G136" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H136" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I136" s="21"/>
+      <c r="J136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="21"/>
+      <c r="M136" s="21"/>
+      <c r="N136" s="21"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A137" s="23"/>
+      <c r="B137" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C137" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="G137" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H137" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I137" s="21"/>
+      <c r="J137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="21"/>
+      <c r="M137" s="21"/>
+      <c r="N137" s="21"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A138" s="23"/>
+      <c r="B138" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C138" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="G138" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H138" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I138" s="21"/>
+      <c r="J138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="21"/>
+      <c r="M138" s="21"/>
+      <c r="N138" s="21"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A139" s="23"/>
+      <c r="B139" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="C139" s="25" t="s">
+        <v>303</v>
+      </c>
+      <c r="G139" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H139" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="I139" s="21"/>
+      <c r="J139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="21"/>
+      <c r="M139" s="21"/>
+      <c r="N139" s="21"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A140" s="23"/>
+      <c r="B140" s="25" t="s">
+        <v>216</v>
+      </c>
+      <c r="C140" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="G140" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H140" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I140" s="21"/>
+      <c r="J140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="21"/>
+      <c r="M140" s="21"/>
+      <c r="N140" s="21"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A141" s="23"/>
+      <c r="B141" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="G141" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H141" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I141" s="21"/>
+      <c r="J141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="21"/>
+      <c r="M141" s="21"/>
+      <c r="N141" s="21"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A142" s="23"/>
+      <c r="B142" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="G142" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H142" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="I142" s="21"/>
+      <c r="J142" s="21"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="21"/>
+      <c r="M142" s="21"/>
+      <c r="N142" s="21"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A143" s="23"/>
+      <c r="B143" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C143" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="G143" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="H143" s="23" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -2772,23 +4832,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674E778E-6EE7-48DC-9458-6E54369E644F}">
   <dimension ref="A1:G94"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD94"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="41.90625" customWidth="1"/>
-    <col min="3" max="6" width="35.7265625" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
+    <col min="3" max="6" width="35.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2797,7 +4859,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2806,7 +4868,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2815,704 +4877,704 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="4"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="131" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B8" t="s">
         <v>132</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" t="s">
         <v>222</v>
       </c>
       <c r="G8" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B9" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" t="s">
         <v>223</v>
       </c>
       <c r="G9" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B10" t="s">
         <v>134</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" t="s">
         <v>224</v>
       </c>
       <c r="G10" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B11" t="s">
         <v>135</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" t="s">
         <v>225</v>
       </c>
       <c r="G11" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B12" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" t="s">
         <v>226</v>
       </c>
       <c r="G12" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B13" t="s">
         <v>137</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" t="s">
         <v>227</v>
       </c>
       <c r="G13" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B14" t="s">
         <v>138</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" t="s">
         <v>228</v>
       </c>
       <c r="G14" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B15" t="s">
         <v>139</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" t="s">
         <v>229</v>
       </c>
       <c r="G15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B16" t="s">
         <v>140</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" t="s">
         <v>230</v>
       </c>
       <c r="G16" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B17" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" t="s">
         <v>231</v>
       </c>
       <c r="G17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B18" t="s">
         <v>142</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" t="s">
         <v>232</v>
       </c>
       <c r="G18" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B19" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" t="s">
         <v>233</v>
       </c>
       <c r="G19" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B20" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" t="s">
         <v>234</v>
       </c>
       <c r="G20" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B21" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" t="s">
         <v>235</v>
       </c>
       <c r="G21" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B22" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" t="s">
         <v>237</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" t="s">
         <v>238</v>
       </c>
       <c r="G22" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B23" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" t="s">
         <v>239</v>
       </c>
       <c r="G23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B24" t="s">
         <v>152</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" t="s">
         <v>240</v>
       </c>
       <c r="G24" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B25" t="s">
         <v>153</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" t="s">
         <v>241</v>
       </c>
       <c r="G25" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B26" t="s">
         <v>154</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" t="s">
         <v>242</v>
       </c>
       <c r="G26" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B27" t="s">
         <v>155</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" t="s">
         <v>243</v>
       </c>
       <c r="G27" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B28" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" t="s">
         <v>244</v>
       </c>
       <c r="G28" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B29" t="s">
         <v>157</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" t="s">
         <v>245</v>
       </c>
       <c r="G29" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B30" t="s">
         <v>158</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" t="s">
         <v>246</v>
       </c>
       <c r="G30" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B31" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" t="s">
         <v>247</v>
       </c>
       <c r="G31" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B32" t="s">
         <v>160</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" t="s">
         <v>248</v>
       </c>
       <c r="G32" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B33" t="s">
         <v>161</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C33" t="s">
         <v>249</v>
       </c>
       <c r="G33" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B34" t="s">
         <v>162</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C34" t="s">
         <v>250</v>
       </c>
       <c r="G34" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B35" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" t="s">
         <v>251</v>
       </c>
       <c r="G35" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>164</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" t="s">
         <v>252</v>
       </c>
       <c r="G36" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B37" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" t="s">
         <v>253</v>
       </c>
       <c r="G37" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B38" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C38" t="s">
         <v>254</v>
       </c>
       <c r="G38" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B39" t="s">
         <v>166</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" t="s">
         <v>255</v>
       </c>
       <c r="G39" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B40" t="s">
         <v>166</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" t="s">
         <v>256</v>
       </c>
       <c r="G40" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B41" t="s">
         <v>167</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C41" t="s">
         <v>257</v>
       </c>
       <c r="G41" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B42" t="s">
         <v>168</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C42" t="s">
         <v>258</v>
       </c>
       <c r="G42" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B43" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C43" t="s">
         <v>259</v>
       </c>
       <c r="G43" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B44" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C44" t="s">
         <v>260</v>
       </c>
       <c r="G44" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B45" t="s">
         <v>169</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C45" t="s">
         <v>261</v>
       </c>
       <c r="G45" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B46" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C46" t="s">
         <v>262</v>
       </c>
       <c r="G46" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B47" t="s">
         <v>170</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C47" t="s">
         <v>263</v>
       </c>
       <c r="G47" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B48" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C48" t="s">
         <v>264</v>
       </c>
       <c r="G48" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B49" t="s">
         <v>171</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C49" t="s">
         <v>265</v>
       </c>
       <c r="G49" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B50" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C50" t="s">
         <v>266</v>
       </c>
       <c r="G50" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B51" t="s">
         <v>172</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C51" t="s">
         <v>267</v>
       </c>
       <c r="G51" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B52" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" t="s">
         <v>268</v>
       </c>
       <c r="G52" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B53" t="s">
         <v>172</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" t="s">
         <v>269</v>
       </c>
       <c r="G53" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B54" t="s">
         <v>175</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" t="s">
         <v>270</v>
       </c>
       <c r="G54" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>174</v>
       </c>
@@ -3526,35 +5588,35 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B56" t="s">
         <v>177</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C56" t="s">
         <v>272</v>
       </c>
       <c r="G56" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B57" t="s">
         <v>178</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C57" t="s">
         <v>273</v>
       </c>
       <c r="G57" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -3565,273 +5627,273 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B59" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C59" t="s">
         <v>274</v>
       </c>
       <c r="G59" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B60" t="s">
         <v>183</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C60" t="s">
         <v>236</v>
       </c>
       <c r="G60" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B61" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" t="s">
         <v>275</v>
       </c>
       <c r="G61" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B62" t="s">
         <v>185</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" t="s">
         <v>276</v>
       </c>
       <c r="G62" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>181</v>
       </c>
       <c r="B63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C63" t="s">
         <v>277</v>
       </c>
       <c r="G63" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B64" t="s">
         <v>188</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C64" t="s">
         <v>278</v>
       </c>
       <c r="G64" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B65" t="s">
         <v>189</v>
       </c>
-      <c r="C65" s="11" t="s">
+      <c r="C65" t="s">
         <v>279</v>
       </c>
       <c r="G65" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B66" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C66" t="s">
         <v>280</v>
       </c>
       <c r="G66" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B67" t="s">
         <v>191</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C67" t="s">
         <v>281</v>
       </c>
       <c r="G67" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B68" t="s">
         <v>192</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C68" t="s">
         <v>282</v>
       </c>
       <c r="G68" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B69" t="s">
         <v>193</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C69" t="s">
         <v>283</v>
       </c>
       <c r="G69" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B70" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C70" t="s">
         <v>284</v>
       </c>
       <c r="G70" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B71" t="s">
         <v>195</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C71" t="s">
         <v>285</v>
       </c>
       <c r="G71" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B72" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C72" t="s">
         <v>286</v>
       </c>
       <c r="G72" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B73" t="s">
         <v>197</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C73" t="s">
         <v>287</v>
       </c>
       <c r="G73" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>198</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C74" t="s">
         <v>288</v>
       </c>
       <c r="G74" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B75" t="s">
         <v>199</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C75" t="s">
         <v>289</v>
       </c>
       <c r="G75" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B76" t="s">
         <v>200</v>
       </c>
-      <c r="C76" s="11" t="s">
+      <c r="C76" t="s">
         <v>290</v>
       </c>
       <c r="G76" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B77" t="s">
         <v>201</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C77" t="s">
         <v>291</v>
       </c>
       <c r="G77" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>187</v>
       </c>
@@ -3845,224 +5907,224 @@
         <v>308</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B79" t="s">
         <v>203</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C79" t="s">
         <v>293</v>
       </c>
       <c r="G79" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B80" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C80" t="s">
         <v>294</v>
       </c>
       <c r="G80" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B81" t="s">
         <v>205</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C81" t="s">
         <v>295</v>
       </c>
       <c r="G81" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B82" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C82" t="s">
         <v>296</v>
       </c>
       <c r="G82" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B83" t="s">
         <v>207</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C83" t="s">
         <v>297</v>
       </c>
       <c r="G83" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B84" t="s">
         <v>208</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C84" t="s">
         <v>298</v>
       </c>
       <c r="G84" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B85" t="s">
         <v>209</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C85" t="s">
         <v>299</v>
       </c>
       <c r="G85" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B86" t="s">
         <v>210</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C86" t="s">
         <v>300</v>
       </c>
       <c r="G86" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B87" t="s">
         <v>211</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C87" t="s">
         <v>301</v>
       </c>
       <c r="G87" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B88" t="s">
         <v>212</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C88" t="s">
         <v>302</v>
       </c>
       <c r="G88" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B89" t="s">
         <v>213</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C89" t="s">
         <v>303</v>
       </c>
       <c r="G89" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B90" t="s">
         <v>214</v>
       </c>
-      <c r="C90" s="11" t="s">
+      <c r="C90" t="s">
         <v>303</v>
       </c>
       <c r="G90" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B91" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C91" t="s">
         <v>304</v>
       </c>
       <c r="G91" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B92" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="C92" t="s">
         <v>305</v>
       </c>
       <c r="G92" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B93" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="11" t="s">
+      <c r="C93" t="s">
         <v>306</v>
       </c>
       <c r="G93" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B94" t="s">
         <v>221</v>
       </c>
-      <c r="C94" s="11" t="s">
+      <c r="C94" t="s">
         <v>307</v>
       </c>
       <c r="G94" t="s">
@@ -4082,166 +6144,166 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24.81640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="68.08984375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="3.6328125" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="12"/>
+    <col min="1" max="1" width="2.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="68.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>309</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B3" s="16" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
+    </row>
+    <row r="3" spans="2:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="20"/>
-    </row>
-    <row r="4" spans="2:10" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="16" t="s">
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:10" ht="80" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="20"/>
-    </row>
-    <row r="5" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="E4" s="15"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="2:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="B5" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="16" t="s">
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B7" s="16" t="s">
+    <row r="7" spans="2:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="11" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="58" x14ac:dyDescent="0.35">
-      <c r="B8" s="16" t="s">
+    <row r="8" spans="2:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="11" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="16" t="s">
+    <row r="9" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+    <row r="10" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B10" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="11" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B11" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="16" t="s">
+    <row r="12" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B12" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="11" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+    <row r="13" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="11" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="16" t="s">
+    <row r="14" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="11" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="16" t="s">
+    <row r="15" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B15" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="11" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="16" t="s">
+    <row r="16" spans="2:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="B16" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B17" s="16" t="s">
+    <row r="17" spans="2:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="11" t="s">
         <v>317</v>
       </c>
     </row>
